--- a/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7456</v>
+        <v>7300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07416378939111379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02205944346902973</v>
+        <v>0.02227090935517716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2106951755337096</v>
+        <v>0.206300688102896</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>908</v>
+        <v>1032</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9189</v>
+        <v>9423</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05083799434295217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01216429017915763</v>
+        <v>0.01382505410442459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1231553831959822</v>
+        <v>0.126284516873316</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>32762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27930</v>
+        <v>28086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34605</v>
+        <v>34598</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9258362106088862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7893048244662909</v>
+        <v>0.7936993118971041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9779405565309702</v>
+        <v>0.9777290906448228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -836,7 +836,7 @@
         <v>38062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32664</v>
+        <v>33535</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>39231</v>
@@ -845,7 +845,7 @@
         <v>0.970201354912784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8325948083651667</v>
+        <v>0.854796202089587</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>70824</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65428</v>
+        <v>65194</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73709</v>
+        <v>73585</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9491620056570478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8768446168040178</v>
+        <v>0.8737154831266838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9878357098208425</v>
+        <v>0.9861749458955749</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5890</v>
+        <v>5195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0147925718409827</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08836926291721817</v>
+        <v>0.0779413633455103</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>10337</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5146</v>
+        <v>5127</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17836</v>
+        <v>17901</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1056148551093526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05257506730233343</v>
+        <v>0.05238020518205013</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1822331527312785</v>
+        <v>0.1828933371137478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>11323</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5644</v>
+        <v>6171</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19463</v>
+        <v>19697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0688208231221946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03430393267417044</v>
+        <v>0.03750945547168445</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1182958644543041</v>
+        <v>0.1197185339714995</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>65668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60764</v>
+        <v>61459</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>66654</v>
@@ -1041,7 +1041,7 @@
         <v>0.9852074281590173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9116307370827791</v>
+        <v>0.9220586366544901</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>87538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80039</v>
+        <v>79974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92729</v>
+        <v>92748</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8943851448906475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8177668472687215</v>
+        <v>0.8171066628862522</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9474249326976667</v>
+        <v>0.94761979481795</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -1074,19 +1074,19 @@
         <v>153206</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>145066</v>
+        <v>144832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>158885</v>
+        <v>158358</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9311791768778054</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8817041355456958</v>
+        <v>0.8802814660285005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9656960673258296</v>
+        <v>0.9624905445283156</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7764</v>
+        <v>8042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05758922432913637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01768250449685459</v>
+        <v>0.01752574591017287</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1524232347130153</v>
+        <v>0.1578722382058131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>10167</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5575</v>
+        <v>4631</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18264</v>
+        <v>18072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1217292011563386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0667482981999814</v>
+        <v>0.05545088743905298</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.218670387649194</v>
+        <v>0.2163736196350554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1220,19 +1220,19 @@
         <v>13101</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7752</v>
+        <v>7365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22078</v>
+        <v>20888</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09743015943950514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0576494816485718</v>
+        <v>0.05477494429528023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1641927434120758</v>
+        <v>0.1553464523231242</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>48006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43176</v>
+        <v>42898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50039</v>
+        <v>50047</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9424107756708636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8475767652869848</v>
+        <v>0.8421277617941872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9823174955031454</v>
+        <v>0.9824742540898271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -1270,19 +1270,19 @@
         <v>73354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65257</v>
+        <v>65449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77946</v>
+        <v>78890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8782707988436614</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7813296123508067</v>
+        <v>0.7836263803649448</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9332517018000187</v>
+        <v>0.9445491125609472</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -1291,19 +1291,19 @@
         <v>121360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112383</v>
+        <v>113573</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126709</v>
+        <v>127096</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9025698405604948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8358072565879242</v>
+        <v>0.8446535476768758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9423505183514281</v>
+        <v>0.9452250557047198</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1416,19 +1416,19 @@
         <v>7691</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3280</v>
+        <v>3349</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14200</v>
+        <v>15196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1034896838016655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04413982281939984</v>
+        <v>0.04506201924333512</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1910890171006787</v>
+        <v>0.2044926701829353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1437,19 +1437,19 @@
         <v>8521</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3897</v>
+        <v>3865</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15772</v>
+        <v>15059</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06583452549057865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03010954271835742</v>
+        <v>0.02986083760840601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1218488088467776</v>
+        <v>0.1163455090271875</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>54291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50590</v>
+        <v>50345</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>55122</v>
@@ -1475,7 +1475,7 @@
         <v>0.9849306369691611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9177734390532447</v>
+        <v>0.9133319947888321</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>66622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60113</v>
+        <v>59117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71033</v>
+        <v>70964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8965103161983344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8089109828993213</v>
+        <v>0.7955073298170651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9558601771806001</v>
+        <v>0.9549379807566649</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -1508,19 +1508,19 @@
         <v>120915</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113664</v>
+        <v>114377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>125539</v>
+        <v>125571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9341654745094213</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8781511911532224</v>
+        <v>0.8836544909728132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9698904572816426</v>
+        <v>0.970139162391594</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>4281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1668</v>
+        <v>1631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8903</v>
+        <v>8473</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05683091757723341</v>
+        <v>0.05556458943773546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3033573235903146</v>
+        <v>0.2887256755050336</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>7766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3295</v>
+        <v>3291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13357</v>
+        <v>14081</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1882937826328565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07988657235185374</v>
+        <v>0.07978676769849578</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.323827587962336</v>
+        <v>0.3413960800848943</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1654,19 +1654,19 @@
         <v>12048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6484</v>
+        <v>6397</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19188</v>
+        <v>19359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1706618063630631</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09185136312166443</v>
+        <v>0.09062201817702457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2718158117081678</v>
+        <v>0.2742384900308456</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>25066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20444</v>
+        <v>20874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27679</v>
+        <v>27716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8541190315225753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6966426764096854</v>
+        <v>0.7112743244949663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9431690824227665</v>
+        <v>0.9444354105622645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -1704,19 +1704,19 @@
         <v>33480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27889</v>
+        <v>27165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37951</v>
+        <v>37955</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8117062173671435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.676172412037664</v>
+        <v>0.6586039199151059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9201134276481463</v>
+        <v>0.9202132323015042</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>61</v>
@@ -1725,19 +1725,19 @@
         <v>58545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51405</v>
+        <v>51234</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64109</v>
+        <v>64196</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8293381936369369</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7281841882918322</v>
+        <v>0.7257615099691543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9081486368783356</v>
+        <v>0.9093779818229754</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8485</v>
+        <v>8450</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0781271267708422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02000413237556911</v>
+        <v>0.01987217679108609</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1797875937081838</v>
+        <v>0.1790348371420379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1850,19 +1850,19 @@
         <v>6052</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2342</v>
+        <v>2330</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12775</v>
+        <v>13063</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08607190688993144</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03330423535049962</v>
+        <v>0.03313671884360328</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1817013757162495</v>
+        <v>0.1857874640340139</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1871,19 +1871,19 @@
         <v>9739</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4665</v>
+        <v>4813</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18100</v>
+        <v>16630</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08288085882997032</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.039696103860022</v>
+        <v>0.04096069302143514</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1540329846668374</v>
+        <v>0.1415223449305862</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>43509</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38711</v>
+        <v>38746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46252</v>
+        <v>46258</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9218728732291578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8202124062918159</v>
+        <v>0.8209651628579623</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9799958676244309</v>
+        <v>0.9801278232089139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -1921,19 +1921,19 @@
         <v>64257</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57534</v>
+        <v>57246</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67967</v>
+        <v>67979</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9139280931100685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8182986242837506</v>
+        <v>0.8142125359659866</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9666957646495004</v>
+        <v>0.9668632811563967</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>107</v>
@@ -1942,19 +1942,19 @@
         <v>107767</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99406</v>
+        <v>100876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112841</v>
+        <v>112693</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9171191411700297</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8459670153331609</v>
+        <v>0.8584776550694139</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9603038961399777</v>
+        <v>0.9590393069785649</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>3431</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7928</v>
+        <v>7864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03239205879661385</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007888543503463043</v>
+        <v>0.007853467624502342</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07483964209222485</v>
+        <v>0.07423677661100446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2067,19 +2067,19 @@
         <v>5027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1945</v>
+        <v>2002</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11267</v>
+        <v>11030</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04291903525235698</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01660892378981697</v>
+        <v>0.01709330273981583</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09620148578793221</v>
+        <v>0.09417320008331699</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2088,19 +2088,19 @@
         <v>8458</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3811</v>
+        <v>4481</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15397</v>
+        <v>15729</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03791968429828652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01708627498430005</v>
+        <v>0.02009096273609174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06903173533355562</v>
+        <v>0.07051875950463997</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>102497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>98000</v>
+        <v>98064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105092</v>
+        <v>105096</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9676079412033861</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9251603579077753</v>
+        <v>0.9257632233889955</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.992111456496537</v>
+        <v>0.9921465323754977</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>112</v>
@@ -2138,19 +2138,19 @@
         <v>112094</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>105854</v>
+        <v>106091</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>115176</v>
+        <v>115119</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.957080964747643</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9037985142120677</v>
+        <v>0.9058267999166832</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9833910762101831</v>
+        <v>0.9829066972601842</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>216</v>
@@ -2159,19 +2159,19 @@
         <v>214591</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>207652</v>
+        <v>207320</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>219238</v>
+        <v>218568</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9620803157017135</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9309682646664443</v>
+        <v>0.9294812404953596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9829137250157</v>
+        <v>0.9799090372639082</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>9157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4527</v>
+        <v>4583</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16163</v>
+        <v>16236</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08183712718128899</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04045735795391361</v>
+        <v>0.04095476979674752</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1444468722197735</v>
+        <v>0.1451006948523987</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2284,19 +2284,19 @@
         <v>16623</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9307</v>
+        <v>9395</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25663</v>
+        <v>26075</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1084895300321696</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06073800774301621</v>
+        <v>0.06131285124381575</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1674883176657529</v>
+        <v>0.1701733053184769</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -2305,19 +2305,19 @@
         <v>25780</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16661</v>
+        <v>16534</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>37426</v>
+        <v>37496</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09724091366145482</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06284394538895247</v>
+        <v>0.06236568261049145</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1411659663246378</v>
+        <v>0.1414312289856853</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>102736</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95730</v>
+        <v>95657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107366</v>
+        <v>107310</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.918162872818711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8555531277802265</v>
+        <v>0.8548993051476014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9595426420460864</v>
+        <v>0.9590452302032525</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>130</v>
@@ -2355,19 +2355,19 @@
         <v>136602</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>127562</v>
+        <v>127150</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>143918</v>
+        <v>143830</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8915104699678303</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8325116823342472</v>
+        <v>0.8298266946815231</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9392619922569838</v>
+        <v>0.9386871487561843</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>237</v>
@@ -2376,19 +2376,19 @@
         <v>239338</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>227692</v>
+        <v>227622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>248457</v>
+        <v>248584</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9027590863385452</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8588340336753619</v>
+        <v>0.8585687710143148</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9371560546110476</v>
+        <v>0.9376343173895086</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>27931</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19530</v>
+        <v>20771</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>39046</v>
+        <v>39294</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0555883392534751</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03886796964585754</v>
+        <v>0.04133816264855964</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07770823723440244</v>
+        <v>0.07820261994036987</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>59</v>
@@ -2501,19 +2501,19 @@
         <v>64832</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>50093</v>
+        <v>49473</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>82171</v>
+        <v>82329</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09578562540648962</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0740095996793603</v>
+        <v>0.07309396344795066</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1214041902790307</v>
+        <v>0.1216372916765228</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>89</v>
@@ -2522,19 +2522,19 @@
         <v>92763</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76038</v>
+        <v>73744</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>115124</v>
+        <v>110795</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07865882753380772</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06447693487442044</v>
+        <v>0.06253138657991597</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09762005563941829</v>
+        <v>0.09394901740388777</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>474535</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>463420</v>
+        <v>463172</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>482936</v>
+        <v>481695</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9444116607465249</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9222917627655975</v>
+        <v>0.92179738005963</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9611320303541424</v>
+        <v>0.9586618373514403</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>602</v>
@@ -2572,19 +2572,19 @@
         <v>612010</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>594671</v>
+        <v>594513</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>626749</v>
+        <v>627369</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9042143745935104</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8785958097209692</v>
+        <v>0.8783627083234772</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9259904003206396</v>
+        <v>0.9269060365520493</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1095</v>
@@ -2593,19 +2593,19 @@
         <v>1086545</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1064184</v>
+        <v>1068513</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1103270</v>
+        <v>1105564</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9213411724661923</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9023799443605817</v>
+        <v>0.9060509825961123</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9355230651255796</v>
+        <v>0.937468613420084</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>2845</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7913</v>
+        <v>7946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06425076060658466</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01782960369743543</v>
+        <v>0.01756383252740197</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1786942566960205</v>
+        <v>0.1794560235056094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2962,19 +2962,19 @@
         <v>14066</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8539</v>
+        <v>8498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21199</v>
+        <v>21244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2876881853723048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1746404240092504</v>
+        <v>0.1738065990255832</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4335753997562253</v>
+        <v>0.4344863877692773</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2983,19 +2983,19 @@
         <v>16911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10310</v>
+        <v>10164</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25203</v>
+        <v>24965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1815009773413593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1106509190537664</v>
+        <v>0.1090842450838263</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.270486327483489</v>
+        <v>0.2679418762223292</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>41436</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36368</v>
+        <v>36335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43491</v>
+        <v>43503</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9357492393934154</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8213057433039771</v>
+        <v>0.820543976494391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9821703963025646</v>
+        <v>0.982436167472598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -3033,19 +3033,19 @@
         <v>34828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27695</v>
+        <v>27650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40355</v>
+        <v>40396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7123118146276951</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5664246002437749</v>
+        <v>0.5655136122307223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8253595759907496</v>
+        <v>0.8261934009744168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>71</v>
@@ -3054,19 +3054,19 @@
         <v>76264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67972</v>
+        <v>68210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82865</v>
+        <v>83011</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8184990226586407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7295136725165112</v>
+        <v>0.732058123777671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8893490809462337</v>
+        <v>0.8909157549161739</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>9646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4176</v>
+        <v>4082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18606</v>
+        <v>19100</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1217862347302464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05273065569955766</v>
+        <v>0.05154231430379856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2349092857546498</v>
+        <v>0.2411549363387988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3179,19 +3179,19 @@
         <v>27329</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18662</v>
+        <v>18617</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37745</v>
+        <v>37307</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.267682571745352</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.182790987557818</v>
+        <v>0.1823490093907071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3697159008972131</v>
+        <v>0.3654217043789951</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -3200,19 +3200,19 @@
         <v>36974</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26005</v>
+        <v>26704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50376</v>
+        <v>50178</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.203944822672893</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1434392493107347</v>
+        <v>0.1472961021344407</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2778636584100868</v>
+        <v>0.2767757044899874</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>69557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60597</v>
+        <v>60103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75027</v>
+        <v>75121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8782137652697536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.76509071424535</v>
+        <v>0.7588450636612012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9472693443004423</v>
+        <v>0.9484576856962015</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -3250,19 +3250,19 @@
         <v>74764</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64348</v>
+        <v>64786</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83431</v>
+        <v>83476</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7323174282546481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6302840991027872</v>
+        <v>0.634578295621005</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8172090124421828</v>
+        <v>0.8176509906092931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>131</v>
@@ -3271,19 +3271,19 @@
         <v>144322</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>130920</v>
+        <v>131118</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>155291</v>
+        <v>154592</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.796055177327107</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7221363415899137</v>
+        <v>0.7232242955100138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8565607506892653</v>
+        <v>0.8527038978655599</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>8218</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3125</v>
+        <v>3210</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15600</v>
+        <v>16072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1474311564241934</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05606334113206912</v>
+        <v>0.05757948157358025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2798620567575363</v>
+        <v>0.2883353236469996</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3396,19 +3396,19 @@
         <v>17428</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9997</v>
+        <v>10813</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25185</v>
+        <v>25822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2179352376027139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1250180382434333</v>
+        <v>0.1352197024626076</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3149325232762741</v>
+        <v>0.3229042614195611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3417,19 +3417,19 @@
         <v>25646</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16773</v>
+        <v>18274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36226</v>
+        <v>36585</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1889760781879347</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1235955911481777</v>
+        <v>0.1346532563194523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2669364506224192</v>
+        <v>0.2695838573113704</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>47524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40142</v>
+        <v>39670</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52617</v>
+        <v>52532</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8525688435758066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7201379432424639</v>
+        <v>0.7116646763530005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9439366588679309</v>
+        <v>0.9424205184264197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -3467,19 +3467,19 @@
         <v>62540</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54783</v>
+        <v>54146</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69971</v>
+        <v>69155</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7820647623972861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6850674767237263</v>
+        <v>0.677095738580439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8749819617565668</v>
+        <v>0.8647802975373924</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -3488,19 +3488,19 @@
         <v>110064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99484</v>
+        <v>99125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>118937</v>
+        <v>117436</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8110239218120653</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7330635493775807</v>
+        <v>0.7304161426886294</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8764044088518222</v>
+        <v>0.8653467436805475</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>7699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3238</v>
+        <v>3407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13626</v>
+        <v>14354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1202507421333027</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05057235430919135</v>
+        <v>0.05321357691186521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2128142040240669</v>
+        <v>0.2241789597743769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3613,19 +3613,19 @@
         <v>19145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12237</v>
+        <v>12264</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28593</v>
+        <v>27350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2237297544425101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1429993157229968</v>
+        <v>0.1433116421356439</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3341361725098056</v>
+        <v>0.3196016735196049</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -3634,19 +3634,19 @@
         <v>26845</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17764</v>
+        <v>18297</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36928</v>
+        <v>37292</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1794421010897755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1187439843581738</v>
+        <v>0.1223067951329203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2468433294240096</v>
+        <v>0.2492758098339873</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>56329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50402</v>
+        <v>49674</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60790</v>
+        <v>60621</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8797492578666973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7871857959759332</v>
+        <v>0.775821040225623</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9494276456908087</v>
+        <v>0.9467864230881348</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -3684,19 +3684,19 @@
         <v>66429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56981</v>
+        <v>58224</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73337</v>
+        <v>73310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7762702455574898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6658638274901945</v>
+        <v>0.6803983264803949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.857000684277003</v>
+        <v>0.856688357864356</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -3705,19 +3705,19 @@
         <v>122757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112674</v>
+        <v>112310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131838</v>
+        <v>131305</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8205578989102245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7531566705759901</v>
+        <v>0.7507241901660129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8812560156418262</v>
+        <v>0.8776932048670797</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>6705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3039</v>
+        <v>2385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11957</v>
+        <v>13044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2121177517543791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09614244432473182</v>
+        <v>0.07544064711585929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3782533166349576</v>
+        <v>0.4126428728713586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3830,19 +3830,19 @@
         <v>13369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7277</v>
+        <v>7226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19542</v>
+        <v>19625</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2681551601612014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1459543113361744</v>
+        <v>0.1449470654965471</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3919681050268291</v>
+        <v>0.3936496057243017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -3851,19 +3851,19 @@
         <v>20074</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12964</v>
+        <v>13275</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28814</v>
+        <v>29928</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2464105778279087</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1591367698470116</v>
+        <v>0.1629441401226321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3536952263821095</v>
+        <v>0.3673573729120596</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>24907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19655</v>
+        <v>18568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28573</v>
+        <v>29227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7878822482456209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6217466833650414</v>
+        <v>0.5873571271286415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9038575556752682</v>
+        <v>0.9245593528841407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -3901,19 +3901,19 @@
         <v>36486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30313</v>
+        <v>30230</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42578</v>
+        <v>42629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7318448398387986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.608031894973171</v>
+        <v>0.6063503942756994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8540456886638257</v>
+        <v>0.8550529345034531</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -3922,19 +3922,19 @@
         <v>61393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52653</v>
+        <v>51539</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68503</v>
+        <v>68192</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7535894221720912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6463047736178907</v>
+        <v>0.6326426270879409</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8408632301529885</v>
+        <v>0.8370558598773679</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>7495</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3267</v>
+        <v>3228</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13860</v>
+        <v>14899</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1448136066642838</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06312120066300164</v>
+        <v>0.06237613871077354</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2677875750774138</v>
+        <v>0.2878647632943387</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4047,19 +4047,19 @@
         <v>19139</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11986</v>
+        <v>12208</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26603</v>
+        <v>26740</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2725902882305039</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.170717872098278</v>
+        <v>0.173873798341246</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3788917180261964</v>
+        <v>0.3808409899952885</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -4068,19 +4068,19 @@
         <v>26634</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18100</v>
+        <v>17315</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36999</v>
+        <v>35405</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2183692287579988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1483984580717221</v>
+        <v>0.1419612998150829</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3033523568114961</v>
+        <v>0.2902783644411936</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>44261</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37896</v>
+        <v>36857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48489</v>
+        <v>48528</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8551863933357161</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7322124249225861</v>
+        <v>0.7121352367056613</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9368787993369984</v>
+        <v>0.9376238612892265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -4118,19 +4118,19 @@
         <v>51073</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43609</v>
+        <v>43472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58226</v>
+        <v>58004</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7274097117694961</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6211082819738034</v>
+        <v>0.6191590100047111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.829282127901722</v>
+        <v>0.8261262016587511</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>94</v>
@@ -4139,19 +4139,19 @@
         <v>95334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84969</v>
+        <v>86563</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>103868</v>
+        <v>104653</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7816307712420012</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6966476431885039</v>
+        <v>0.7097216355588064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.851601541928278</v>
+        <v>0.8580387001849171</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>13450</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7077</v>
+        <v>7462</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22965</v>
+        <v>23461</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1198110551152825</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06304068361748444</v>
+        <v>0.0664661046851627</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2045668523093678</v>
+        <v>0.2089821608721836</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -4264,19 +4264,19 @@
         <v>30243</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21353</v>
+        <v>21109</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42299</v>
+        <v>41829</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2130389410166368</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1504105761944257</v>
+        <v>0.1486954322483864</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.297962228605889</v>
+        <v>0.2946501369089107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -4285,19 +4285,19 @@
         <v>43694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31542</v>
+        <v>32027</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58420</v>
+        <v>57270</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1718705407517449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1240690012034658</v>
+        <v>0.1259768714823071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2297956125882835</v>
+        <v>0.2252701059625188</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>98813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>89298</v>
+        <v>88802</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105186</v>
+        <v>104801</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8801889448847176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7954331476906324</v>
+        <v>0.7910178391278161</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9369593163825157</v>
+        <v>0.9335338953148373</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>102</v>
@@ -4335,19 +4335,19 @@
         <v>111719</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>99663</v>
+        <v>100133</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>120609</v>
+        <v>120853</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7869610589833632</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7020377713941107</v>
+        <v>0.7053498630910895</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8495894238055742</v>
+        <v>0.8513045677516137</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>191</v>
@@ -4356,19 +4356,19 @@
         <v>210532</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>195806</v>
+        <v>196956</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>222684</v>
+        <v>222199</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8281294592482551</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7702043874117165</v>
+        <v>0.7747298940374815</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8759309987965342</v>
+        <v>0.8740231285176929</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>5397</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10984</v>
+        <v>12333</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04469416791953359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01739346712260688</v>
+        <v>0.01745292835916361</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09096450165526558</v>
+        <v>0.1021348646148974</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -4481,19 +4481,19 @@
         <v>22363</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14003</v>
+        <v>14707</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31861</v>
+        <v>32990</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1360123759992203</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08516697420433735</v>
+        <v>0.08945138840844934</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1937827299576909</v>
+        <v>0.2006502779115087</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -4502,19 +4502,19 @@
         <v>27760</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17884</v>
+        <v>19297</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38805</v>
+        <v>39288</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09734450201380322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06271466664647331</v>
+        <v>0.06766839910864191</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1360789227825677</v>
+        <v>0.1377719545614735</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>115355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>109768</v>
+        <v>108419</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118652</v>
+        <v>118645</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9553058320804664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9090354983447344</v>
+        <v>0.8978651353851025</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9826065328773931</v>
+        <v>0.9825470716408364</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>131</v>
@@ -4552,19 +4552,19 @@
         <v>142054</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132556</v>
+        <v>131427</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>150414</v>
+        <v>149710</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8639876240007798</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8062172700423096</v>
+        <v>0.7993497220884913</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9148330257956632</v>
+        <v>0.9105486115915508</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>232</v>
@@ -4573,19 +4573,19 @@
         <v>257409</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246364</v>
+        <v>245881</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267285</v>
+        <v>265872</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9026554979861968</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8639210772174324</v>
+        <v>0.8622280454385265</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9372853333535267</v>
+        <v>0.9323316008913579</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>61456</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47343</v>
+        <v>46468</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>78238</v>
+        <v>78774</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1098143124118763</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08459532589505496</v>
+        <v>0.08303290123879449</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1398022012955537</v>
+        <v>0.1407599269943047</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>149</v>
@@ -4698,19 +4698,19 @@
         <v>163082</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>140252</v>
+        <v>140867</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>188361</v>
+        <v>186359</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2194988910981649</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1887713790346695</v>
+        <v>0.1895989342097891</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2535231795977625</v>
+        <v>0.2508277677813896</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>202</v>
@@ -4719,19 +4719,19 @@
         <v>224538</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>196770</v>
+        <v>196079</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>257598</v>
+        <v>251238</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1723754568658039</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.151058225364264</v>
+        <v>0.150527808993669</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1977546614099388</v>
+        <v>0.192872365741617</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>498181</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>481399</v>
+        <v>480863</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>512294</v>
+        <v>513169</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8901856875881238</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8601977987044463</v>
+        <v>0.8592400730056953</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.915404674104945</v>
+        <v>0.9169670987612046</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>545</v>
@@ -4769,19 +4769,19 @@
         <v>579893</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>554614</v>
+        <v>556616</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>602723</v>
+        <v>602108</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7805011089018351</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7464768204022371</v>
+        <v>0.7491722322186104</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8112286209653304</v>
+        <v>0.8104010657902107</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>996</v>
@@ -4790,19 +4790,19 @@
         <v>1078074</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1045014</v>
+        <v>1051374</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1105842</v>
+        <v>1106533</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8276245431341961</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8022453385900613</v>
+        <v>0.8071276342583831</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8489417746357361</v>
+        <v>0.8494721910063311</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>5783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2400</v>
+        <v>2451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10789</v>
+        <v>10285</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1486812578613163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06170698139557359</v>
+        <v>0.06302206863248068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2773694442804009</v>
+        <v>0.2644124398809139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5159,19 +5159,19 @@
         <v>10613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4746</v>
+        <v>4840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17704</v>
+        <v>17847</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2148843910174382</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09608843737058291</v>
+        <v>0.09800031342883452</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.358453431423562</v>
+        <v>0.3613446507916749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -5180,19 +5180,19 @@
         <v>16396</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10169</v>
+        <v>9895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24589</v>
+        <v>25343</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1857178036485267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1151828117956478</v>
+        <v>0.1120780686812661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2785076731720789</v>
+        <v>0.2870484112345099</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>33113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28107</v>
+        <v>28611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36496</v>
+        <v>36445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8513187421386837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7226305557195996</v>
+        <v>0.7355875601190851</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9382930186044264</v>
+        <v>0.9369779313675193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -5230,19 +5230,19 @@
         <v>38778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31687</v>
+        <v>31544</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44645</v>
+        <v>44551</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7851156089825618</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.641546568576438</v>
+        <v>0.638655349208325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9039115626294171</v>
+        <v>0.9019996865711656</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -5251,19 +5251,19 @@
         <v>71891</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63698</v>
+        <v>62944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78118</v>
+        <v>78392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8142821963514734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7214923268279209</v>
+        <v>0.7129515887654899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8848171882043522</v>
+        <v>0.8879219313187339</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>4464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1579</v>
+        <v>1748</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10183</v>
+        <v>10673</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05114195154393647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01808273546204857</v>
+        <v>0.02002797357847464</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1166465578513252</v>
+        <v>0.1222616402518112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -5376,19 +5376,19 @@
         <v>15331</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7972</v>
+        <v>7971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24580</v>
+        <v>25557</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1330512664960142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06918674857356102</v>
+        <v>0.06917924951267186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2133170504562051</v>
+        <v>0.2217929169208107</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -5397,19 +5397,19 @@
         <v>19796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12229</v>
+        <v>11912</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31294</v>
+        <v>30668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09774533521255757</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06038518417991107</v>
+        <v>0.0588186338194884</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1545196865754919</v>
+        <v>0.1514278584601877</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>82831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>77112</v>
+        <v>76622</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85716</v>
+        <v>85547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9488580484560635</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8833534421486741</v>
+        <v>0.8777383597481876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9819172645379514</v>
+        <v>0.9799720264215253</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -5447,19 +5447,19 @@
         <v>99897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>90648</v>
+        <v>89671</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107256</v>
+        <v>107257</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8669487335039858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7866829495437946</v>
+        <v>0.7782070830791893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9308132514264388</v>
+        <v>0.9308207504873282</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>169</v>
@@ -5468,19 +5468,19 @@
         <v>182727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>171229</v>
+        <v>171855</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>190294</v>
+        <v>190611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9022546647874424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8454803134245081</v>
+        <v>0.8485721415398122</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.939614815820089</v>
+        <v>0.9411813661805115</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>2817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7664</v>
+        <v>7442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04432976334618165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01193840137830046</v>
+        <v>0.01214053169289466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1206091761740011</v>
+        <v>0.1171083401860155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -5593,19 +5593,19 @@
         <v>5711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13848</v>
+        <v>13708</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07147416945821883</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01602687847834066</v>
+        <v>0.01601282681922063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.173321100324967</v>
+        <v>0.1715689674759082</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -5614,19 +5614,19 @@
         <v>8528</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3650</v>
+        <v>3951</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16683</v>
+        <v>17086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05944904994259612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02544245281432953</v>
+        <v>0.02754207440493387</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1163055070479576</v>
+        <v>0.1191139768469236</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>60729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55882</v>
+        <v>56104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>62787</v>
+        <v>62775</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9556702366538183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8793908238259975</v>
+        <v>0.8828916598139845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9880615986216996</v>
+        <v>0.9878594683071054</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -5664,19 +5664,19 @@
         <v>74186</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66049</v>
+        <v>66189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78617</v>
+        <v>78618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9285258305417812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8266788996750332</v>
+        <v>0.828431032524091</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9839731215216594</v>
+        <v>0.9839871731807793</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>134</v>
@@ -5685,19 +5685,19 @@
         <v>134915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>126760</v>
+        <v>126357</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139793</v>
+        <v>139492</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9405509500574039</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8836944929520425</v>
+        <v>0.8808860231530774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9745575471856704</v>
+        <v>0.9724579255950665</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>7736</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4046</v>
+        <v>4133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13613</v>
+        <v>13234</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1195521837903612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06252227361358632</v>
+        <v>0.06386297132699335</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2103556215469412</v>
+        <v>0.2045109066937789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5810,19 +5810,19 @@
         <v>11930</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6139</v>
+        <v>5194</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20593</v>
+        <v>21079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1302773707344785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06703449796063825</v>
+        <v>0.05671790541011424</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2248800307168936</v>
+        <v>0.2301882545110328</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -5831,19 +5831,19 @@
         <v>19666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12345</v>
+        <v>12059</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30082</v>
+        <v>31014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1258364902539499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07899115355251408</v>
+        <v>0.0771628556398538</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1924796798215899</v>
+        <v>0.1984461668247924</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>56976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51099</v>
+        <v>51478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60666</v>
+        <v>60579</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8804478162096387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7896443784530585</v>
+        <v>0.7954890933062209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9374777263864136</v>
+        <v>0.9361370286730066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -5881,19 +5881,19 @@
         <v>79644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70981</v>
+        <v>70495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>85435</v>
+        <v>86380</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8697226292655216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7751199692831073</v>
+        <v>0.769811745488967</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9329655020393618</v>
+        <v>0.9432820945898857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -5902,19 +5902,19 @@
         <v>136619</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126203</v>
+        <v>125271</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>143940</v>
+        <v>144226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8741635097460501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8075203201784102</v>
+        <v>0.8015538331752079</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9210088464474859</v>
+        <v>0.9228371443601462</v>
       </c>
     </row>
     <row r="15">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6027,19 +6027,19 @@
         <v>6875</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2313</v>
+        <v>2324</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13010</v>
+        <v>12923</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1360466928443247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04576617584336135</v>
+        <v>0.0459871107755434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2574645518536259</v>
+        <v>0.255742550056588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6048,19 +6048,19 @@
         <v>7674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3127</v>
+        <v>3112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14404</v>
+        <v>14249</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08285961029827058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03376163424218642</v>
+        <v>0.03359760098424032</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1555261370005492</v>
+        <v>0.1538593033916295</v>
       </c>
     </row>
     <row r="17">
@@ -6077,7 +6077,7 @@
         <v>41281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>42080</v>
@@ -6086,7 +6086,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6098,19 +6098,19 @@
         <v>43657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37522</v>
+        <v>37609</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48219</v>
+        <v>48208</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8639533071556753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7425354481463743</v>
+        <v>0.744257449943412</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9542338241566387</v>
+        <v>0.9540128892244566</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -6119,19 +6119,19 @@
         <v>84938</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>78208</v>
+        <v>78363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89485</v>
+        <v>89500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9171403897017294</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8444738629994503</v>
+        <v>0.8461406966083704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9662383657578135</v>
+        <v>0.9664023990157597</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>6643</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3248</v>
+        <v>3139</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11957</v>
+        <v>11723</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1371170539500593</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06704561522227794</v>
+        <v>0.06480407102565991</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.246817778901134</v>
+        <v>0.2419716717197288</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -6244,19 +6244,19 @@
         <v>14886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7703</v>
+        <v>7553</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23727</v>
+        <v>23386</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.220899529334627</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1143095553821648</v>
+        <v>0.1120771258586255</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3520966778682906</v>
+        <v>0.3470393459699983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6265,19 +6265,19 @@
         <v>21529</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13156</v>
+        <v>13792</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30498</v>
+        <v>32579</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1858585772607427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1135773340252447</v>
+        <v>0.1190699619699342</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.263294043889031</v>
+        <v>0.2812569931447612</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>41803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36489</v>
+        <v>36723</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45198</v>
+        <v>45307</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8628829460499408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7531822210988659</v>
+        <v>0.7580283282802711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.932954384777722</v>
+        <v>0.9351959289743399</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -6315,19 +6315,19 @@
         <v>52502</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43661</v>
+        <v>44002</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59685</v>
+        <v>59835</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.779100470665373</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6479033221317095</v>
+        <v>0.6529606540300017</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8856904446178352</v>
+        <v>0.8879228741413745</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -6336,19 +6336,19 @@
         <v>94305</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85336</v>
+        <v>83255</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102678</v>
+        <v>102042</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8141414227392574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7367059561109689</v>
+        <v>0.7187430068552392</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8864226659747553</v>
+        <v>0.8809300380300665</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>12241</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6703</v>
+        <v>6778</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19777</v>
+        <v>20025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.109114157397615</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05975337010081126</v>
+        <v>0.06041727297764835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1762919979385031</v>
+        <v>0.178501439021373</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -6461,19 +6461,19 @@
         <v>24112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15731</v>
+        <v>15766</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34757</v>
+        <v>35647</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1633316041593885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1065601830238286</v>
+        <v>0.1067974707994431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2354442405273926</v>
+        <v>0.2414720596904408</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -6482,19 +6482,19 @@
         <v>36353</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26151</v>
+        <v>25175</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48821</v>
+        <v>49238</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1399206276374833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1006548099554131</v>
+        <v>0.09689887254015601</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1879117454094739</v>
+        <v>0.1895143967479392</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>99944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>92408</v>
+        <v>92160</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105482</v>
+        <v>105407</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.890885842602385</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8237080020614969</v>
+        <v>0.8214985609786272</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9402466298991887</v>
+        <v>0.9395827270223519</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>105</v>
@@ -6532,19 +6532,19 @@
         <v>123513</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>112868</v>
+        <v>111978</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>131894</v>
+        <v>131859</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8366683958406115</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7645557594726076</v>
+        <v>0.7585279403095592</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8934398169761716</v>
+        <v>0.893202529200557</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>201</v>
@@ -6553,19 +6553,19 @@
         <v>223457</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>210989</v>
+        <v>210572</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>233659</v>
+        <v>234635</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8600793723625167</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8120882545905261</v>
+        <v>0.8104856032520609</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8993451900445869</v>
+        <v>0.9031011274598441</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>7371</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3207</v>
+        <v>3152</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14654</v>
+        <v>15993</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05493770098630086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02390328161004812</v>
+        <v>0.02349093515131958</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1092209790181868</v>
+        <v>0.1191985719629565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -6678,19 +6678,19 @@
         <v>13229</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6520</v>
+        <v>6434</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23330</v>
+        <v>21876</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07503661485146425</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03698173004367059</v>
+        <v>0.03649324362515222</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.132334883902438</v>
+        <v>0.1240859683141207</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -6699,19 +6699,19 @@
         <v>20600</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11886</v>
+        <v>12326</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32233</v>
+        <v>31815</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06635081552325328</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03828521299667777</v>
+        <v>0.03970223710220463</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1038220953074185</v>
+        <v>0.1024767688731124</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>126797</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119514</v>
+        <v>118175</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>130961</v>
+        <v>131016</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9450622990136991</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8907790209818127</v>
+        <v>0.8808014280370436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9760967183899517</v>
+        <v>0.9765090648486804</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>132</v>
@@ -6749,19 +6749,19 @@
         <v>163068</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152967</v>
+        <v>154421</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169777</v>
+        <v>169863</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9249633851485357</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8676651160975614</v>
+        <v>0.8759140316858786</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9630182699563293</v>
+        <v>0.9635067563748475</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>266</v>
@@ -6770,19 +6770,19 @@
         <v>289865</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>278232</v>
+        <v>278650</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>298579</v>
+        <v>298139</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9336491844767467</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8961779046925815</v>
+        <v>0.8975232311268883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9617147870033222</v>
+        <v>0.9602977628977958</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>47855</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35629</v>
+        <v>36871</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61593</v>
+        <v>60684</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08092740812815294</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06025195846788279</v>
+        <v>0.06235300748886257</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1041605946827333</v>
+        <v>0.1026239027605478</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>80</v>
@@ -6895,19 +6895,19 @@
         <v>102686</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>83512</v>
+        <v>83197</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>126356</v>
+        <v>124541</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1319991951454119</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1073519070056086</v>
+        <v>0.106947112790993</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1624260812438831</v>
+        <v>0.1600931636468324</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>133</v>
@@ -6916,19 +6916,19 @@
         <v>150541</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>125630</v>
+        <v>127556</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>174981</v>
+        <v>176448</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.109943340389356</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09175044759974234</v>
+        <v>0.0931573116247299</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1277922320330952</v>
+        <v>0.1288639567938087</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>543473</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>529735</v>
+        <v>530644</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>555699</v>
+        <v>554457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9190725918718471</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.895839405317267</v>
+        <v>0.897376097239452</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9397480415321174</v>
+        <v>0.9376469925111373</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>575</v>
@@ -6966,19 +6966,19 @@
         <v>675245</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>651575</v>
+        <v>653390</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>694419</v>
+        <v>694734</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8680008048545881</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8375739187561168</v>
+        <v>0.839906836353168</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8926480929943913</v>
+        <v>0.8930528872090071</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1149</v>
@@ -6987,19 +6987,19 @@
         <v>1218718</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1194278</v>
+        <v>1192811</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1243629</v>
+        <v>1241703</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.890056659610644</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8722077679669049</v>
+        <v>0.8711360432061913</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9082495524002576</v>
+        <v>0.9068426883752702</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>3912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1418</v>
+        <v>1434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8622</v>
+        <v>8106</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06418228049871876</v>
+        <v>0.06418228049871877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02326341536994847</v>
+        <v>0.02353023135626806</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1414428929012486</v>
+        <v>0.1329859544420019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -7356,19 +7356,19 @@
         <v>9601</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6071</v>
+        <v>5827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14759</v>
+        <v>14200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1470889122558116</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09301202773246962</v>
+        <v>0.08926446088001599</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2260972879917865</v>
+        <v>0.2175334802582413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -7377,19 +7377,19 @@
         <v>13514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9049</v>
+        <v>9134</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20371</v>
+        <v>19919</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.107054741623267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07168490502323928</v>
+        <v>0.07236061597077117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1613754303743738</v>
+        <v>0.1577977965464116</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>57043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52333</v>
+        <v>52849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59537</v>
+        <v>59521</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9358177195012813</v>
+        <v>0.9358177195012811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8585571070987514</v>
+        <v>0.8670140455579975</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9767365846300515</v>
+        <v>0.9764697686437319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>115</v>
@@ -7427,19 +7427,19 @@
         <v>55675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50517</v>
+        <v>51076</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59205</v>
+        <v>59449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8529110877441883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7739027120082134</v>
+        <v>0.7824665197417586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9069879722675303</v>
+        <v>0.9107355391199838</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>193</v>
@@ -7448,19 +7448,19 @@
         <v>112717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105860</v>
+        <v>106312</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>117182</v>
+        <v>117097</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8929452583767329</v>
+        <v>0.892945258376733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8386245696256264</v>
+        <v>0.8422022034535883</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9283150949767608</v>
+        <v>0.9276393840292287</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>8534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3881</v>
+        <v>4668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15084</v>
+        <v>15171</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.096566069448746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04391728097161537</v>
+        <v>0.05281716959574762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1706899453867036</v>
+        <v>0.1716732861819272</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -7573,19 +7573,19 @@
         <v>27134</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20218</v>
+        <v>20397</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35360</v>
+        <v>34341</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2005053765510427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1494005879103978</v>
+        <v>0.150725591106503</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2612883831174675</v>
+        <v>0.2537604379758872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -7594,19 +7594,19 @@
         <v>35668</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27098</v>
+        <v>27562</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46269</v>
+        <v>45748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1594440975730956</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1211329693411292</v>
+        <v>0.1232103501488851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.206835418684056</v>
+        <v>0.2045033221002581</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>79839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73289</v>
+        <v>73202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84492</v>
+        <v>83705</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.903433930551254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8293100546132965</v>
+        <v>0.8283267138180729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9560827190283848</v>
+        <v>0.9471828304042526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>181</v>
@@ -7644,19 +7644,19 @@
         <v>108194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>99968</v>
+        <v>100987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>115110</v>
+        <v>114931</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7994946234489573</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7387116168825326</v>
+        <v>0.7462395620241127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.850599412089602</v>
+        <v>0.849274408893497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>267</v>
@@ -7665,19 +7665,19 @@
         <v>188033</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>177432</v>
+        <v>177953</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>196603</v>
+        <v>196139</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8405559024269045</v>
+        <v>0.8405559024269046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7931645813159441</v>
+        <v>0.7954966778997418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8788670306588701</v>
+        <v>0.876789649851115</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>11999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7780</v>
+        <v>7910</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17233</v>
+        <v>17201</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1659952519439196</v>
+        <v>0.1659952519439195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1076305080020128</v>
+        <v>0.1094243972486696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2384041064253156</v>
+        <v>0.2379600977867046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -7790,19 +7790,19 @@
         <v>14327</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10203</v>
+        <v>10094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19468</v>
+        <v>20314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1668860041702692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1188444502392751</v>
+        <v>0.1175789398931418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2267625375387066</v>
+        <v>0.2366276480371752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -7811,19 +7811,19 @@
         <v>26326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19881</v>
+        <v>20056</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33416</v>
+        <v>33795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.166478833084126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1257238514117678</v>
+        <v>0.1268295234427291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2113100867356639</v>
+        <v>0.2137118746891725</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>60286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55052</v>
+        <v>55084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64505</v>
+        <v>64375</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8340047480560806</v>
+        <v>0.8340047480560805</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7615958935746844</v>
+        <v>0.7620399022132953</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.892369491997987</v>
+        <v>0.8905756027513306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>140</v>
@@ -7861,19 +7861,19 @@
         <v>71523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66382</v>
+        <v>65536</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75647</v>
+        <v>75756</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8331139958297309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7732374624612935</v>
+        <v>0.7633723519628242</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8811555497607249</v>
+        <v>0.8824210601068582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>241</v>
@@ -7882,19 +7882,19 @@
         <v>131809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>124719</v>
+        <v>124340</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>138254</v>
+        <v>138079</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8335211669158739</v>
+        <v>0.8335211669158742</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7886899132643361</v>
+        <v>0.7862881253108275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8742761485882321</v>
+        <v>0.8731704765572706</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>2796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>710</v>
+        <v>818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6890</v>
+        <v>6892</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03362779029344181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008537785827508236</v>
+        <v>0.009832712932125438</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.082858012458449</v>
+        <v>0.08287634722434684</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -8007,19 +8007,19 @@
         <v>17552</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13179</v>
+        <v>12922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23248</v>
+        <v>23070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1588349507054177</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1192614204147706</v>
+        <v>0.1169351217905308</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.210382774173064</v>
+        <v>0.2087724648643781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -8028,19 +8028,19 @@
         <v>20348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14944</v>
+        <v>15410</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26970</v>
+        <v>26961</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1050718768229108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07716756829817914</v>
+        <v>0.07957149456279929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1392651376629217</v>
+        <v>0.139216729665884</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>80360</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76266</v>
+        <v>76264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82446</v>
+        <v>82338</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9663722097065582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9171419875415486</v>
+        <v>0.9171236527756533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9914622141724918</v>
+        <v>0.9901672870678747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -8078,19 +8078,19 @@
         <v>92952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87256</v>
+        <v>87434</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97325</v>
+        <v>97582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8411650492945825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7896172258269361</v>
+        <v>0.7912275351356218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8807385795852296</v>
+        <v>0.8830648782094692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>329</v>
@@ -8099,19 +8099,19 @@
         <v>173312</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>166690</v>
+        <v>166699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>178716</v>
+        <v>178250</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8949281231770891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8607348623370786</v>
+        <v>0.8607832703341159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9228324317018209</v>
+        <v>0.9204285054372008</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>5179</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2674</v>
+        <v>2616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8637</v>
+        <v>9246</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1418909954697564</v>
+        <v>0.1418909954697563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07324950635418775</v>
+        <v>0.07166792000312806</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2366022254196559</v>
+        <v>0.2532911603339764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -8224,19 +8224,19 @@
         <v>9972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6707</v>
+        <v>6606</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14328</v>
+        <v>14079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1630321871074499</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1096543769555291</v>
+        <v>0.108000767237224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2342592141350491</v>
+        <v>0.2301841495245837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -8245,19 +8245,19 @@
         <v>15151</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10324</v>
+        <v>10863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19934</v>
+        <v>20505</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1551306880273597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1057088132277534</v>
+        <v>0.1112293942273851</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2041042207102839</v>
+        <v>0.2099502284421672</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>31324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27866</v>
+        <v>27257</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33829</v>
+        <v>33887</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8581090045302437</v>
+        <v>0.8581090045302433</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.763397774580344</v>
+        <v>0.7467088396660243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9267504936458122</v>
+        <v>0.9283320799968718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -8295,19 +8295,19 @@
         <v>51192</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46836</v>
+        <v>47085</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54457</v>
+        <v>54558</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8369678128925501</v>
+        <v>0.8369678128925502</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7657407858649509</v>
+        <v>0.7698158504754163</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8903456230444707</v>
+        <v>0.8919992327627759</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -8316,19 +8316,19 @@
         <v>82516</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77733</v>
+        <v>77162</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>87343</v>
+        <v>86804</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8448693119726404</v>
+        <v>0.8448693119726401</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.795895779289716</v>
+        <v>0.7900497715578328</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8942911867722466</v>
+        <v>0.888770605772615</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>4966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2853</v>
+        <v>2651</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8341</v>
+        <v>8237</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08246524732315122</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04737830131307522</v>
+        <v>0.04401388765901883</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1384951991991461</v>
+        <v>0.1367745517329333</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -8441,19 +8441,19 @@
         <v>13887</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9991</v>
+        <v>10380</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17985</v>
+        <v>17942</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2063203941017242</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1484305040080379</v>
+        <v>0.1542168689083038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2672034756589695</v>
+        <v>0.2665613271165769</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -8462,19 +8462,19 @@
         <v>18853</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14451</v>
+        <v>14499</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23989</v>
+        <v>24021</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1478331518406534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1133141587187217</v>
+        <v>0.1136916594200973</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.18809918527132</v>
+        <v>0.1883554183375714</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>55258</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51883</v>
+        <v>51987</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57371</v>
+        <v>57573</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9175347526768487</v>
+        <v>0.9175347526768488</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8615048008008541</v>
+        <v>0.8632254482670667</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9526216986869251</v>
+        <v>0.9559861123409811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>136</v>
@@ -8512,19 +8512,19 @@
         <v>53422</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49324</v>
+        <v>49367</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57318</v>
+        <v>56929</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7936796058982759</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7327965243410304</v>
+        <v>0.7334386728834231</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.851569495991962</v>
+        <v>0.8457831310916962</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>259</v>
@@ -8533,19 +8533,19 @@
         <v>108679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>103543</v>
+        <v>103511</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113081</v>
+        <v>113033</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8521668481593465</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.81190081472868</v>
+        <v>0.8116445816624286</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8866858412812784</v>
+        <v>0.8863083405799027</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>9494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4915</v>
+        <v>4776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17276</v>
+        <v>17455</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06273368435843948</v>
+        <v>0.0627336843584395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03247793360203657</v>
+        <v>0.0315565732142038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.114155573268083</v>
+        <v>0.1153366775910142</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -8658,19 +8658,19 @@
         <v>23380</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16471</v>
+        <v>16413</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32044</v>
+        <v>32110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1424568269055535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1003582888475901</v>
+        <v>0.1000060129589575</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1952423623281536</v>
+        <v>0.195646185132801</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -8679,19 +8679,19 @@
         <v>32875</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24292</v>
+        <v>24068</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43786</v>
+        <v>43695</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1042102596540865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07700300531555293</v>
+        <v>0.07629242650459885</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1387976693401579</v>
+        <v>0.1385116653325132</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>141847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>134065</v>
+        <v>133886</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146426</v>
+        <v>146565</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9372663156415603</v>
+        <v>0.9372663156415604</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8858444267319169</v>
+        <v>0.8846633224089858</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9675220663979635</v>
+        <v>0.9684434267857961</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>208</v>
@@ -8729,19 +8729,19 @@
         <v>140743</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>132079</v>
+        <v>132013</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>147652</v>
+        <v>147710</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8575431730944465</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8047576376718468</v>
+        <v>0.8043538148671993</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.89964171115241</v>
+        <v>0.8999939870410429</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>367</v>
@@ -8750,19 +8750,19 @@
         <v>282589</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>271678</v>
+        <v>271769</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>291172</v>
+        <v>291396</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8957897403459137</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8612023306598422</v>
+        <v>0.8614883346674868</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9229969946844471</v>
+        <v>0.9237075734954004</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>6097</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2762</v>
+        <v>2730</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10919</v>
+        <v>10830</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03728100600594039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01688594795040915</v>
+        <v>0.01669161529380784</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0667635198159532</v>
+        <v>0.06621835539442705</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -8875,19 +8875,19 @@
         <v>14001</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8956</v>
+        <v>8937</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20190</v>
+        <v>20411</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06580537969274253</v>
+        <v>0.06580537969274251</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04209284051460306</v>
+        <v>0.04200281708505244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09489334967000224</v>
+        <v>0.09593338565531688</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -8896,19 +8896,19 @@
         <v>20099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14087</v>
+        <v>13795</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27790</v>
+        <v>27380</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05340827399933721</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03743479067322718</v>
+        <v>0.03665682199071758</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07384576675189056</v>
+        <v>0.07275751316132681</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>157457</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>152635</v>
+        <v>152724</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>160792</v>
+        <v>160824</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9627189939940596</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9332364801840469</v>
+        <v>0.9337816446055731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9831140520495908</v>
+        <v>0.9833083847061921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>321</v>
@@ -8946,19 +8946,19 @@
         <v>198765</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>192576</v>
+        <v>192355</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>203810</v>
+        <v>203829</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9341946203072576</v>
+        <v>0.9341946203072575</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9051066503299979</v>
+        <v>0.9040666143446832</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.957907159485397</v>
+        <v>0.9579971829149476</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>547</v>
@@ -8967,19 +8967,19 @@
         <v>356222</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>348531</v>
+        <v>348941</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>362234</v>
+        <v>362526</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9465917260006629</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9261542332481099</v>
+        <v>0.9272424868386732</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9625652093267728</v>
+        <v>0.9633431780092824</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>52979</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>42726</v>
+        <v>42359</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>66351</v>
+        <v>67031</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0739523874943054</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05964070459100219</v>
+        <v>0.05912828813131468</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09261803392365449</v>
+        <v>0.09356806555638179</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>249</v>
@@ -9092,19 +9092,19 @@
         <v>129855</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>116761</v>
+        <v>115115</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>148098</v>
+        <v>144750</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1439122116459985</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1294008848245739</v>
+        <v>0.1275765045815893</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1641301226709646</v>
+        <v>0.1604196063153727</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>328</v>
@@ -9113,19 +9113,19 @@
         <v>182834</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>162780</v>
+        <v>166131</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>203725</v>
+        <v>205279</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1129501476590319</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1005615215150202</v>
+        <v>0.1026318704573405</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1258563108702813</v>
+        <v>0.1268162523731188</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>663412</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>650040</v>
+        <v>649360</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>673665</v>
+        <v>674032</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9260476125056946</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9073819660763454</v>
+        <v>0.9064319344436181</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9403592954089977</v>
+        <v>0.9408717118686852</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1456</v>
@@ -9163,19 +9163,19 @@
         <v>772464</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>754221</v>
+        <v>757569</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>785558</v>
+        <v>787204</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8560877883540016</v>
+        <v>0.8560877883540017</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8358698773290354</v>
+        <v>0.8395803936846271</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8705991151754261</v>
+        <v>0.8724234954184106</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2404</v>
@@ -9184,19 +9184,19 @@
         <v>1435876</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1414985</v>
+        <v>1413431</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1455930</v>
+        <v>1452579</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8870498523409683</v>
+        <v>0.8870498523409682</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8741436891297188</v>
+        <v>0.8731837476268811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8994384784849798</v>
+        <v>0.8973681295426595</v>
       </c>
     </row>
     <row r="30">
